--- a/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D302" t="n">
         <v>113</v>
       </c>
       <c r="E302" t="n">
-        <v>29381741</v>
+        <v>29434553</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -21769,13 +21769,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>19597</v>
+        <v>19598</v>
       </c>
       <c r="D419" t="n">
         <v>3144</v>
       </c>
       <c r="E419" t="n">
-        <v>62254389</v>
+        <v>62313484</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -21820,13 +21820,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>45867</v>
+        <v>45870</v>
       </c>
       <c r="D420" t="n">
         <v>7717</v>
       </c>
       <c r="E420" t="n">
-        <v>184758356</v>
+        <v>184784999</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -21922,13 +21922,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>10095</v>
+        <v>10097</v>
       </c>
       <c r="D422" t="n">
         <v>1498</v>
       </c>
       <c r="E422" t="n">
-        <v>101786287</v>
+        <v>101953101</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -22024,13 +22024,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D424" t="n">
         <v>280</v>
       </c>
       <c r="E424" t="n">
-        <v>77877371</v>
+        <v>77935589</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61065</v>
+        <v>61067</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>220905308</v>
+        <v>220927636</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163507</v>
+        <v>163517</v>
       </c>
       <c r="D434" t="n">
         <v>25454</v>
       </c>
       <c r="E434" t="n">
-        <v>710245238</v>
+        <v>710365397</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94543</v>
+        <v>94553</v>
       </c>
       <c r="D435" t="n">
         <v>12851</v>
       </c>
       <c r="E435" t="n">
-        <v>651966913</v>
+        <v>652104722</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50599</v>
+        <v>50607</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>540847545</v>
+        <v>541330331</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30942</v>
+        <v>30946</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>594895581</v>
+        <v>594970821</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53174</v>
+        <v>53176</v>
       </c>
       <c r="D446" t="n">
         <v>8886</v>
       </c>
       <c r="E446" t="n">
-        <v>117825843</v>
+        <v>117832147</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>15462</v>
+        <v>15463</v>
       </c>
       <c r="D456" t="n">
         <v>2377</v>
       </c>
       <c r="E456" t="n">
-        <v>41200227</v>
+        <v>41210227</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -23911,13 +23911,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D461" t="n">
         <v>205</v>
       </c>
       <c r="E461" t="n">
-        <v>49916486</v>
+        <v>50000716</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -25798,13 +25798,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>8170</v>
+        <v>8171</v>
       </c>
       <c r="D498" t="n">
         <v>1913</v>
       </c>
       <c r="E498" t="n">
-        <v>16872184</v>
+        <v>16876204</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -25849,13 +25849,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>18336</v>
+        <v>18338</v>
       </c>
       <c r="D499" t="n">
         <v>4979</v>
       </c>
       <c r="E499" t="n">
-        <v>41281761</v>
+        <v>41287345</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -33601,13 +33601,13 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="D651" t="n">
         <v>578</v>
       </c>
       <c r="E651" t="n">
-        <v>8770137</v>
+        <v>8774736</v>
       </c>
       <c r="F651" t="inlineStr">
         <is>
@@ -42883,13 +42883,13 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>20969</v>
+        <v>20970</v>
       </c>
       <c r="D833" t="n">
         <v>4374</v>
       </c>
       <c r="E833" t="n">
-        <v>37861275</v>
+        <v>37871275</v>
       </c>
       <c r="F833" t="inlineStr">
         <is>
